--- a/data/siRNA_bench/GenScript_siRNA_KIT_jbst.xlsx
+++ b/data/siRNA_bench/GenScript_siRNA_KIT_jbst.xlsx
@@ -571,11 +571,11 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('AGGA', 'TCCT'), ('AAG', 'TTC')]</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -594,18 +594,18 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>25.05</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RNAi_9</t>
+          <t>RNAi_2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GAAACGAAACCTTATGGTGTT</t>
+          <t>TGGTAGGCGCGTTTCACACTT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['GAAACGAAACCTTATGGTGTT']</t>
+          <t>['TGGTAGGCGCGTTTCACACTT']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>AACACCATAAGGTTTCGTTTC</t>
+          <t>AAGTGTGAAACGCGCCTACCA</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -668,21 +668,21 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q3" t="n">
-        <v>26.81</v>
+        <v>52.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RNAi_10</t>
+          <t>RNAi_3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TTCCAAGGTTGTTGTGACATT</t>
+          <t>TGTATACAGAAACGAAACCTT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['TTCCAAGGTTGTTGTGACATT']</t>
+          <t>['TGTATACAGAAACGAAACCTT']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -725,15 +725,15 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('TGTA', 'ACAT')]</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>AATGTCACAACAACCTTGGAA</t>
+          <t>AAGGTTTCGTTTCTGTATACA</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -745,21 +745,21 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>26.81</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RNAi_5</t>
+          <t>RNAi_8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CTCGTTAGATGAAGTTCACTT</t>
+          <t>AGAACTCTGAACCACTAGCTT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['CTCGTTAGATGAAGTTCACTT']</t>
+          <t>['AGAACTCTGAACCACTAGCTT']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -802,15 +802,15 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('AGA', 'TCT')]</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>AAGTGAACTTCATCTAACGAG</t>
+          <t>AAGCTAGTGGTTCAGAGTTCT</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>23.05</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="6">
@@ -879,11 +879,11 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('TCT', 'AGA')]</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -902,18 +902,18 @@
         <v>-2</v>
       </c>
       <c r="Q6" t="n">
-        <v>23.05</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RNAi_8</t>
+          <t>RNAi_9</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AGAACTCTGAACCACTAGCTT</t>
+          <t>GAAACGAAACCTTATGGTGTT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['AGAACTCTGAACCACTAGCTT']</t>
+          <t>['GAAACGAAACCTTATGGTGTT']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -956,15 +956,15 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['AGCT', 'CTAG']</t>
+          <t>[('AAC', 'TTG'), ('ACC', 'TGG')]</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>AAGCTAGTGGTTCAGAGTTCT</t>
+          <t>AACACCATAAGGTTTCGTTTC</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -976,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>20.29</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="8">
@@ -1033,11 +1033,11 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>['CATG', 'GGCC']</t>
+          <t>[('AGTCA', 'TCAGT'), ('ATG', 'TAC')]</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1056,18 +1056,18 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>29.81</v>
+        <v>52.38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RNAi_2</t>
+          <t>RNAi_10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TGGTAGGCGCGTTTCACACTT</t>
+          <t>TTCCAAGGTTGTTGTGACATT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['TGGTAGGCGCGTTTCACACTT']</t>
+          <t>['TTCCAAGGTTGTTGTGACATT']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1110,15 +1110,15 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['CGCG', 'GCGC']</t>
+          <t>[('CAA', 'GTT'), ('TGT', 'ACA')]</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>AAGTGTGAAACGCGCCTACCA</t>
+          <t>AATGTCACAACAACCTTGGAA</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1130,21 +1130,21 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q9" t="n">
-        <v>33.57</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RNAi_7</t>
+          <t>RNAi_5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GCACGTGTATTTGCCGGTGTT</t>
+          <t>CTCGTTAGATGAAGTTCACTT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['GCACGTGTATTTGCCGGTGTT']</t>
+          <t>['CTCGTTAGATGAAGTTCACTT']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1187,15 +1187,15 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['CCGG', 'ACGT', 'CACGTG']</t>
+          <t>[('AAGT', 'TTCA'), ('TGAA', 'ACTT')]</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>AACACCGGCAAATACACGTGC</t>
+          <t>AAGTGAACTTCATCTAACGAG</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1210,18 +1210,18 @@
         <v>-1</v>
       </c>
       <c r="Q10" t="n">
-        <v>37.33</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RNAi_3</t>
+          <t>RNAi_7</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TGTATACAGAAACGAAACCTT</t>
+          <t>GCACGTGTATTTGCCGGTGTT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['TGTATACAGAAACGAAACCTT']</t>
+          <t>['GCACGTGTATTTGCCGGTGTT']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1264,15 +1264,15 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['TATA', 'GTATAC', 'TGTATACA']</t>
+          <t>[('GCA', 'CGT'), ('CAC', 'GTG')]</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>AAGGTTTCGTTTCTGTATACA</t>
+          <t>AACACCGGCAAATACACGTGC</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1284,10 +1284,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q11" t="n">
-        <v>18.29</v>
+        <v>52.38</v>
       </c>
     </row>
   </sheetData>
